--- a/vendascasasdummieregrmultipla.xlsx
+++ b/vendascasasdummieregrmultipla.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Valor da avaliação ($1.000)</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Vendida ?(0=Não,1=Sim)</t>
+  </si>
+  <si>
+    <t>Número da casa</t>
   </si>
 </sst>
 </file>
@@ -88,15 +91,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -379,451 +379,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E33"/>
+  <dimension ref="B3:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>94.1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>78.17</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
       <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
         <v>101.9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>80.239999999999995</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
       <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
         <v>88.65</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>74.03</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
       <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
         <v>115.5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>86.31</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
       <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
         <v>87.5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>75.22</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
       <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
         <v>72</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>65.540000000000006</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
         <v>91.5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>72.430000000000007</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
       <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2">
         <v>113.9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>85.61</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
       <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
         <v>69.34</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D12" s="2">
         <v>60.8</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
       <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
         <v>96.9</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>81.88</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
       <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2">
         <v>96</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>79.11</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
       <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
         <v>61.9</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>59.93</v>
       </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
       <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
         <v>93</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>75.27</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
       <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
         <v>109.5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>85.88</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
       <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
         <v>93.75</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>76.64</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
       <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
         <v>106.7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>84.36</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
       <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
         <v>81.5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>72.94</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
       <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2">
         <v>94.5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>76.5</v>
       </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
       <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2">
         <v>69</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>66.28</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
         <v>96.9</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>79.739999999999995</v>
       </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
       <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
         <v>86.5</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>72.78</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
       <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
         <v>97.9</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>77.900000000000006</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
       <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
         <v>83</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>74.31</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
       <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
         <v>97.3</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>79.849999999999994</v>
       </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
       <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2">
         <v>100.8</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>84.78</v>
       </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
       <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2">
         <v>97.9</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>81.61</v>
       </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
       <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
         <v>90.5</v>
       </c>
-      <c r="C30" s="2">
+      <c r="D30" s="2">
         <v>74.92</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
       <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2">
         <v>97</v>
       </c>
-      <c r="C31" s="2">
+      <c r="D31" s="2">
         <v>79.98</v>
       </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
       <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2">
         <v>92</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>77.959999999999994</v>
       </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
       <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="2">
         <v>95.9</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>79.069999999999993</v>
       </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
       <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
         <v>12</v>
       </c>
     </row>
